--- a/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 20202.xlsx
+++ b/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>Mat</t>
   </si>
@@ -82,22 +82,67 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>PLIEGO</t>
+  </si>
+  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
     <t>NUBE</t>
   </si>
   <si>
+    <t>TLECUILE</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
     <t>ALEMAN</t>
   </si>
   <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAVIER</t>
+  </si>
+  <si>
+    <t>VANELY JUDITH</t>
+  </si>
+  <si>
+    <t>VICTOR GAMALIEL</t>
+  </si>
+  <si>
     <t>DIANA ARELI</t>
+  </si>
+  <si>
+    <t>CRISTAL</t>
   </si>
   <si>
     <t>MARCO ANTONIO</t>
@@ -906,16 +951,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>74.36</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -932,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3">
-        <v>90.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -958,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -984,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>84.62</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1010,16 +1055,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G6">
-        <v>77.14</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1036,16 +1081,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -1055,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1090,16 +1135,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920033</v>
+        <v>20330051920001</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1113,22 +1158,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920055</v>
+        <v>20330051920005</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1136,25 +1181,140 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920100</v>
+        <v>20330051920220</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920033</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920037</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920055</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
